--- a/Assets/RawData/Excel/EnemyData.xlsx
+++ b/Assets/RawData/Excel/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\TheLast\Assets\RawData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4EB12-6EDF-409C-AF90-B6E3494133C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E2700-ED90-4EE9-8B42-5F05706836C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8292" yWindow="996" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDatas" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/Excel/EnemyData.xlsx
+++ b/Assets/RawData/Excel/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\TheLast\Assets\RawData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E2700-ED90-4EE9-8B42-5F05706836C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96732310-0543-434A-A18A-C7038026BE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8292" yWindow="996" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20000" yWindow="1290" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>_id</t>
   </si>
@@ -77,20 +77,12 @@
     <t>skeleton3</t>
   </si>
   <si>
-    <t>mummy1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mummy2</t>
-  </si>
-  <si>
-    <t>mummy3</t>
-  </si>
-  <si>
-    <t>mummy4</t>
-  </si>
-  <si>
-    <t>mummy5</t>
+    <t>mummy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mummy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -161,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +193,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +452,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -619,7 +611,7 @@
         <v>10000103</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>220</v>
@@ -642,7 +634,7 @@
         <v>10000104</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>230</v>
@@ -665,7 +657,7 @@
         <v>10000105</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>240</v>
